--- a/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/PC_SENTADO/Sujeto_Posicion_optimization_1.xlsx
+++ b/Tesis/Resultados/Fundamentacion Ajuste Modelo/Resultados_Rango/PC_SENTADO/Sujeto_Posicion_optimization_1.xlsx
@@ -12,116 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
-  <si>
-    <t>epochs</t>
-  </si>
-  <si>
-    <t>dropout</t>
-  </si>
-  <si>
-    <t>activation</t>
-  </si>
-  <si>
-    <t>optimization</t>
-  </si>
-  <si>
-    <t>neurons</t>
-  </si>
-  <si>
-    <t>batch_size</t>
-  </si>
-  <si>
-    <t>hidden_layers</t>
-  </si>
-  <si>
-    <t>CORRELATION</t>
-  </si>
-  <si>
-    <t>FISHER</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>tanh</t>
-  </si>
-  <si>
-    <t>Adadelta</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>9.629094873104514e-09</t>
-  </si>
-  <si>
-    <t>9.629094873104512e-09</t>
-  </si>
-  <si>
-    <t>Adagrad</t>
-  </si>
-  <si>
-    <t>0.5339147868021117</t>
-  </si>
-  <si>
-    <t>0.5956049761816432</t>
-  </si>
-  <si>
-    <t>Adamax</t>
-  </si>
-  <si>
-    <t>0.5298186505314233</t>
-  </si>
-  <si>
-    <t>0.5898930040403119</t>
-  </si>
-  <si>
-    <t>Nadam</t>
-  </si>
-  <si>
-    <t>0.4645517558802114</t>
-  </si>
-  <si>
-    <t>0.5031001351850367</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>0.3808500771464704</t>
-  </si>
-  <si>
-    <t>0.40105357068707087</t>
-  </si>
-  <si>
-    <t>RMSprop</t>
-  </si>
-  <si>
-    <t>0.2876000863525748</t>
-  </si>
-  <si>
-    <t>0.2959479681437562</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,257 +366,401 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>batch_size</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>neurons</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>hidden_layers</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dropout</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>epochs</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>optimization</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>activation</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CORRELATION</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FISHER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>RMSprop</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.402991634228804</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>0.42721549549985083</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Adagrad</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.40286302280884223</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.427061957045035</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nadam</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.40228201037089156</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.4263685712612137</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    <row r="5">
       <c r="A5" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Adamax</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.32892779443224335</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>0.34162549320521696</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.3287470717106132</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.3414228588026519</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>SGD</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.10037463672584244</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.10071378300511795</t>
+        </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8">
       <c r="A8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Adadelta</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-0.16879229049030872</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>-0.17042327471348004</t>
+        </is>
       </c>
     </row>
   </sheetData>
